--- a/Data/LCMS_Metabolite_HeatMap.xlsx
+++ b/Data/LCMS_Metabolite_HeatMap.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8954" uniqueCount="1966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8954" uniqueCount="1967">
   <si>
     <t xml:space="preserve">Sample_ID</t>
   </si>
@@ -5913,6 +5913,9 @@
   </si>
   <si>
     <t xml:space="preserve">7795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ar</t>
   </si>
   <si>
     <t xml:space="preserve">Pyrocatechuic acid</t>
@@ -6024,7 +6027,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69857,7 +69860,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69877,16 +69880,16 @@
         <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>18</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70268,7 +70271,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>88</v>
@@ -70297,7 +70300,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>88</v>
